--- a/URS/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816BF058-83F9-4364-A619-8E3A0C949F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23232" windowHeight="9924"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,10 +171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EffectiveDateFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EmpNo = ,AND EffectiveDate &gt;= ,AND EffectiveDate &lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -300,12 +297,56 @@
   <si>
     <t>EmpNo</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveDateFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByEffectiveDateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate &gt;= ,AND EffectiveDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo Asc ,EffectiveDate Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNotYet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate &gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findOutOf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findIng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IneffectiveDate &lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EffectiveDate &gt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -575,7 +616,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,6 +707,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -701,6 +759,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -876,10 +951,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1009,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>31</v>
@@ -1026,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>25</v>
@@ -1043,10 +1118,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>25</v>
@@ -1056,7 +1131,7 @@
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1064,20 +1139,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="27">
         <v>6</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,20 +1160,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="27">
         <v>6</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1106,20 +1181,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="E14" s="27">
         <v>6</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1127,20 +1202,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="27">
         <v>20</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1148,20 +1223,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="27">
         <v>20</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1169,20 +1244,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="27">
         <v>20</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1213,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>31</v>
@@ -1306,12 +1381,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1335,35 +1410,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
